--- a/ЕСіМ2/ЕСИМ.xlsx
+++ b/ЕСіМ2/ЕСИМ.xlsx
@@ -125,23 +125,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -190,23 +177,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -219,15 +193,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>21981</xdr:colOff>
+          <xdr:colOff>19050</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>14654</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>402981</xdr:colOff>
+          <xdr:colOff>400050</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>6609</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -255,23 +229,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -284,15 +245,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>29307</xdr:colOff>
+          <xdr:colOff>28575</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>183174</xdr:rowOff>
+          <xdr:rowOff>180975</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>549519</xdr:colOff>
-          <xdr:row>11</xdr:row>
-          <xdr:rowOff>187143</xdr:rowOff>
+          <xdr:colOff>552450</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -320,23 +281,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -349,15 +297,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>600809</xdr:colOff>
+          <xdr:colOff>600075</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>175848</xdr:rowOff>
+          <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>322386</xdr:colOff>
+          <xdr:colOff>323850</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>6368</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -385,23 +333,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -450,23 +385,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -515,23 +437,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -560,6 +469,160 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1039"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>19707</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>32846</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>124810</xdr:colOff>
+          <xdr:row>16</xdr:row>
+          <xdr:rowOff>189090</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1040" name="Object 16" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1040"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>604346</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>13139</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>151086</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>81377</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1042" name="Object 18" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1042"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>578069</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>111674</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>137948</xdr:colOff>
+          <xdr:row>23</xdr:row>
+          <xdr:rowOff>82334</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1043" name="Object 19" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1043"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -870,10 +933,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D2:E14"/>
+  <dimension ref="D2:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -939,15 +1002,42 @@
         <v>166.15+116.71j</v>
       </c>
     </row>
+    <row r="16" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <f>(16*100+20*95+35*50+32*140+27*75+35*135)/165</f>
+        <v>99.878787878787875</v>
+      </c>
+      <c r="E16">
+        <f>ROUND(D16,2)</f>
+        <v>99.88</v>
+      </c>
+    </row>
+    <row r="19" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <f>(16*240+20*125+35*260+32*260+27*265+35*195)/165</f>
+        <v>228.72727272727272</v>
+      </c>
+      <c r="E19">
+        <f>ROUND(D19,2)</f>
+        <v>228.73</v>
+      </c>
+    </row>
+    <row r="22" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <f>(16*7+20*51+35*30+32*23+27*18+35*28)/165</f>
+        <v>26.56969696969697</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
   <oleObjects>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.DSMT4" shapeId="1026" r:id="rId3">
-          <objectPr defaultSize="0" r:id="rId4">
+        <oleObject progId="Equation.DSMT4" shapeId="1026" r:id="rId4">
+          <objectPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -966,13 +1056,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.DSMT4" shapeId="1026" r:id="rId3"/>
+        <oleObject progId="Equation.DSMT4" shapeId="1026" r:id="rId4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.DSMT4" shapeId="1028" r:id="rId5">
-          <objectPr defaultSize="0" r:id="rId6">
+        <oleObject progId="Equation.DSMT4" shapeId="1028" r:id="rId6">
+          <objectPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -991,13 +1081,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.DSMT4" shapeId="1028" r:id="rId5"/>
+        <oleObject progId="Equation.DSMT4" shapeId="1028" r:id="rId6"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.DSMT4" shapeId="1031" r:id="rId7">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId8">
+        <oleObject progId="Equation.DSMT4" shapeId="1031" r:id="rId8">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -1016,13 +1106,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.DSMT4" shapeId="1031" r:id="rId7"/>
+        <oleObject progId="Equation.DSMT4" shapeId="1031" r:id="rId8"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.DSMT4" shapeId="1032" r:id="rId9">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId10">
+        <oleObject progId="Equation.DSMT4" shapeId="1032" r:id="rId10">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -1041,13 +1131,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.DSMT4" shapeId="1032" r:id="rId9"/>
+        <oleObject progId="Equation.DSMT4" shapeId="1032" r:id="rId10"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.DSMT4" shapeId="1034" r:id="rId11">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId12">
+        <oleObject progId="Equation.DSMT4" shapeId="1034" r:id="rId12">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -1066,13 +1156,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.DSMT4" shapeId="1034" r:id="rId11"/>
+        <oleObject progId="Equation.DSMT4" shapeId="1034" r:id="rId12"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.DSMT4" shapeId="1037" r:id="rId13">
-          <objectPr defaultSize="0" r:id="rId14">
+        <oleObject progId="Equation.DSMT4" shapeId="1037" r:id="rId14">
+          <objectPr defaultSize="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -1091,13 +1181,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.DSMT4" shapeId="1037" r:id="rId13"/>
+        <oleObject progId="Equation.DSMT4" shapeId="1037" r:id="rId14"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.DSMT4" shapeId="1038" r:id="rId15">
-          <objectPr defaultSize="0" r:id="rId16">
+        <oleObject progId="Equation.DSMT4" shapeId="1038" r:id="rId16">
+          <objectPr defaultSize="0" r:id="rId17">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -1116,13 +1206,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.DSMT4" shapeId="1038" r:id="rId15"/>
+        <oleObject progId="Equation.DSMT4" shapeId="1038" r:id="rId16"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.DSMT4" shapeId="1039" r:id="rId17">
-          <objectPr defaultSize="0" r:id="rId18">
+        <oleObject progId="Equation.DSMT4" shapeId="1039" r:id="rId18">
+          <objectPr defaultSize="0" r:id="rId19">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -1141,7 +1231,82 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.DSMT4" shapeId="1039" r:id="rId17"/>
+        <oleObject progId="Equation.DSMT4" shapeId="1039" r:id="rId18"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.DSMT4" shapeId="1040" r:id="rId20">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId21">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>123825</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>190500</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.DSMT4" shapeId="1040" r:id="rId20"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.DSMT4" shapeId="1042" r:id="rId22">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId23">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>600075</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>20</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.DSMT4" shapeId="1042" r:id="rId22"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.DSMT4" shapeId="1043" r:id="rId24">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId25">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>581025</xdr:colOff>
+                <xdr:row>20</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>133350</xdr:colOff>
+                <xdr:row>23</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.DSMT4" shapeId="1043" r:id="rId24"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>
